--- a/temp_soy_traits.xlsx
+++ b/temp_soy_traits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FangCloudSync\R_WD360\Project\soyplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987D3090-7C9E-4AAA-985C-00AAB16B2F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68347EE9-3534-4D87-8E78-D391854244E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3795" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>shangpeizhouse</t>
   </si>
   <si>
-    <t>1:白_2:紫_99: 分离</t>
-  </si>
-  <si>
     <t>Color_of_the_Upper_Hypocotyl</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>kangcaoganlin</t>
   </si>
   <si>
-    <t>1:高抗_3:抗_5:中抗_7:不抗_99:分离</t>
-  </si>
-  <si>
     <t>Glyphosate_Resistance</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>miaoqipingjia</t>
   </si>
   <si>
-    <t>2:优_1:良_0:中_-1:差</t>
-  </si>
-  <si>
     <t>Seedling_Stage_Evaluation</t>
   </si>
   <si>
@@ -151,9 +142,6 @@
     <t>yexing</t>
   </si>
   <si>
-    <t>1:披针_2:卵圆_3:椭圆_99:分离</t>
-  </si>
-  <si>
     <t>Leaf_Shape</t>
   </si>
   <si>
@@ -163,9 +151,6 @@
     <t xml:space="preserve"> yese</t>
   </si>
   <si>
-    <t>1:淡绿_2:绿_3:深绿_99:分离</t>
-  </si>
-  <si>
     <t>Leaf_Color</t>
   </si>
   <si>
@@ -184,9 +169,6 @@
     <t>kanghuayebingdu</t>
   </si>
   <si>
-    <t>0:免疫_1:高抗_3:抗_7:感_9:高感</t>
-  </si>
-  <si>
     <t>Flower_and_Leaf_Virus_Resistance</t>
   </si>
   <si>
@@ -205,9 +187,6 @@
     <t>daofuxing</t>
   </si>
   <si>
-    <t>1:不倒_3:轻倒_5:中倒_7:重倒_9:严重倒</t>
-  </si>
-  <si>
     <t>Lodging_Resistance</t>
   </si>
   <si>
@@ -235,9 +214,6 @@
     <t>luoyexing</t>
   </si>
   <si>
-    <t>1:不落_2:半落_3:落_99:分离</t>
-  </si>
-  <si>
     <t>Leaf_Drop</t>
   </si>
   <si>
@@ -247,9 +223,6 @@
     <t>liejiaxing</t>
   </si>
   <si>
-    <t>3:不裂_5:轻裂0-9_7:中9-25_9: 易裂&gt;25_99:分离</t>
-  </si>
-  <si>
     <t>Pod_Shattering</t>
   </si>
   <si>
@@ -325,9 +298,6 @@
     <t>jiejiaxixing</t>
   </si>
   <si>
-    <t>3:无限_5:亚有限_7:有限_99:分离</t>
-  </si>
-  <si>
     <t>Pod_Setting_Habit</t>
   </si>
   <si>
@@ -337,9 +307,6 @@
     <t>rongmaose</t>
   </si>
   <si>
-    <t>1:灰_2:棕_99: 分离</t>
-  </si>
-  <si>
     <t>Hair_Color</t>
   </si>
   <si>
@@ -349,9 +316,6 @@
     <t>jiashuse</t>
   </si>
   <si>
-    <t>1:灰褐_2:黄褐_3:褐_4:深褐_5:黑_99:分离</t>
-  </si>
-  <si>
     <t>Pod_Ripening_Color</t>
   </si>
   <si>
@@ -460,9 +424,6 @@
     <t>lixing</t>
   </si>
   <si>
-    <t>1:圆_2:扁圆_3:椭圆_4:扁椭圆_5:长椭圆_6:肾_99:分离</t>
-  </si>
-  <si>
     <t>Seed_Shape</t>
   </si>
   <si>
@@ -472,9 +433,6 @@
     <t>zhongpise</t>
   </si>
   <si>
-    <t>1:黄_2:黑_3:青黄_99:分离</t>
-  </si>
-  <si>
     <t>Seed_Coat_Color</t>
   </si>
   <si>
@@ -484,9 +442,6 @@
     <t>ziyese</t>
   </si>
   <si>
-    <t>1:黄_2:绿_99:分离</t>
-  </si>
-  <si>
     <t>Cotyledon_Color</t>
   </si>
   <si>
@@ -496,9 +451,6 @@
     <t>qise</t>
   </si>
   <si>
-    <t>1:黄_2:淡褐_3:褐_4:深褐_5:蓝_6:淡黑_7:黑_99:分离</t>
-  </si>
-  <si>
     <t>Hilum_Color</t>
   </si>
   <si>
@@ -508,9 +460,6 @@
     <t>zhongpiguangze</t>
   </si>
   <si>
-    <t>0:无_1:微_2:强_99:分离</t>
-  </si>
-  <si>
     <t>Seed_Coat_Gloss</t>
   </si>
   <si>
@@ -641,6 +590,57 @@
   </si>
   <si>
     <t>Number_of_Seeds_Harvested</t>
+  </si>
+  <si>
+    <t>1-高抗_3-抗_5-中抗_7-不抗_99-分离</t>
+  </si>
+  <si>
+    <t>2-优_1-良_0-中_-1-差</t>
+  </si>
+  <si>
+    <t>1-披针_2-卵圆_3-椭圆_99-分离</t>
+  </si>
+  <si>
+    <t>1-淡绿_2-绿_3-深绿_99-分离</t>
+  </si>
+  <si>
+    <t>0-免疫_1-高抗_3-抗_7-感_9-高感</t>
+  </si>
+  <si>
+    <t>1-不倒_3-轻倒_5-中倒_7-重倒_9-严重倒</t>
+  </si>
+  <si>
+    <t>1-不落_2-半落_3-落_99-分离</t>
+  </si>
+  <si>
+    <t>3-无限_5-亚有限_7-有限_99-分离</t>
+  </si>
+  <si>
+    <t>1-灰褐_2-黄褐_3-褐_4-深褐_5-黑_99-分离</t>
+  </si>
+  <si>
+    <t>1-圆_2-扁圆_3-椭圆_4-扁椭圆_5-长椭圆_6-肾_99-分离</t>
+  </si>
+  <si>
+    <t>1-黄_2-黑_3-青黄_99-分离</t>
+  </si>
+  <si>
+    <t>1-黄_2-绿_99-分离</t>
+  </si>
+  <si>
+    <t>1-黄_2-淡褐_3-褐_4-深褐_5-蓝_6-淡黑_7-黑_99-分离</t>
+  </si>
+  <si>
+    <t>0-无_1-微_2-强_99-分离</t>
+  </si>
+  <si>
+    <t>1-白_2-紫_99-分离</t>
+  </si>
+  <si>
+    <t>3-不裂_5-轻裂0-9_7-中9-25_9-易裂&gt;25_99-分离</t>
+  </si>
+  <si>
+    <t>1-灰_2-棕_99-分离</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1116,7 +1116,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1125,14 +1125,14 @@
         <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -1140,13 +1140,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -1155,14 +1155,14 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -1170,13 +1170,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -1185,14 +1185,14 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -1200,13 +1200,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -1215,14 +1215,14 @@
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1230,10 +1230,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
@@ -1243,7 +1243,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
@@ -1258,13 +1258,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -1273,14 +1273,14 @@
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1288,13 +1288,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="E10" s="1">
         <v>9</v>
@@ -1303,14 +1303,14 @@
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1318,13 +1318,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -1333,14 +1333,14 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1348,13 +1348,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="E12" s="1">
         <v>11</v>
@@ -1363,14 +1363,14 @@
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1378,13 +1378,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="E13" s="1">
         <v>12</v>
@@ -1393,14 +1393,14 @@
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1408,13 +1408,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="E14" s="1">
         <v>13</v>
@@ -1423,14 +1423,14 @@
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1438,13 +1438,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="E15" s="1">
         <v>14</v>
@@ -1453,14 +1453,14 @@
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1468,10 +1468,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
@@ -1481,7 +1481,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
@@ -1496,13 +1496,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="E17" s="1">
         <v>16</v>
@@ -1511,14 +1511,14 @@
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1526,13 +1526,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="E18" s="1">
         <v>17</v>
@@ -1541,14 +1541,14 @@
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1556,13 +1556,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="E19" s="1">
         <v>18</v>
@@ -1571,14 +1571,14 @@
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1586,10 +1586,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
@@ -1599,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
@@ -1614,13 +1614,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="E21" s="1">
         <v>20</v>
@@ -1629,14 +1629,14 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -1644,10 +1644,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
@@ -1657,7 +1657,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
@@ -1672,10 +1672,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
@@ -1685,14 +1685,14 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -1700,29 +1700,29 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E24" s="1">
         <v>23</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -1730,29 +1730,29 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="E25" s="1">
         <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -1760,29 +1760,29 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="E26" s="1">
         <v>25</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -1790,29 +1790,29 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="E27" s="1">
         <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -1820,29 +1820,29 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="E28" s="1">
         <v>27</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -1850,29 +1850,29 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E29" s="1">
         <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -1880,29 +1880,29 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E30" s="1">
         <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -1910,29 +1910,29 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E31" s="1">
         <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -1940,29 +1940,29 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E32" s="1">
         <v>31</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -1970,29 +1970,29 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1">
         <v>32</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -2000,29 +2000,29 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1">
         <v>33</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -2030,29 +2030,29 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E35" s="1">
         <v>34</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -2060,27 +2060,27 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
         <v>35</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -2088,29 +2088,29 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E37" s="1">
         <v>36</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -2118,29 +2118,29 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="E38" s="1">
         <v>37</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2148,29 +2148,29 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E39" s="1">
         <v>38</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -2178,29 +2178,29 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="E40" s="1">
         <v>39</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -2208,29 +2208,29 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="E41" s="1">
         <v>40</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -2238,29 +2238,29 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="E42" s="1">
         <v>41</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -2268,29 +2268,29 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="E43" s="1">
         <v>42</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -2298,27 +2298,27 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
         <v>43</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -2326,29 +2326,29 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E45" s="1">
         <v>44</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -2356,29 +2356,29 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E46" s="1">
         <v>45</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -2386,29 +2386,29 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E47" s="1">
         <v>46</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -2416,29 +2416,29 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E48" s="1">
         <v>47</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -2446,27 +2446,27 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
         <v>48</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
@@ -2474,27 +2474,27 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1">
         <v>49</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
@@ -2502,27 +2502,27 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1">
         <v>50</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
@@ -2530,29 +2530,29 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E52" s="1">
         <v>51</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
@@ -2560,29 +2560,29 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E53" s="1">
         <v>52</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
@@ -2590,29 +2590,29 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E54" s="1">
         <v>53</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
